--- a/legislator/property/output/normal/林滄敏_2013-12-16_財產申報表_tmp9c321.xlsx
+++ b/legislator/property/output/normal/林滄敏_2013-12-16_財產申報表_tmp9c321.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -187,7 +187,7 @@
     <t>85年06月05日</t>
   </si>
   <si>
-    <t>89年01月</t>
+    <t>89年01月12日</t>
   </si>
   <si>
     <t>87年06月18日</t>
@@ -217,421 +217,403 @@
     <t>買賣</t>
   </si>
   <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超過五年).</t>
+  </si>
+  <si>
+    <t>.(超過五年）</t>
+  </si>
+  <si>
+    <t>1：003458</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-16</t>
+  </si>
+  <si>
+    <t>tmp9c321</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市田中央段00041000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00931000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延和段01345000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段02295000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00763000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市延平段00486000.建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09622000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段09623000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06598000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市南郭段南郭小段06597000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市箣桐段01058000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市中山路</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01788000建號</t>
+  </si>
+  <si>
+    <t>彰化縣彰化市光南里16鄰中興路</t>
+  </si>
+  <si>
+    <t>臺中市南屯區惠信段01885000建號</t>
+  </si>
+  <si>
+    <t>100000分之338</t>
+  </si>
+  <si>
+    <t>83年09月22日</t>
+  </si>
+  <si>
+    <t>88年10月29日.</t>
+  </si>
+  <si>
+    <t>繼承『</t>
+  </si>
+  <si>
+    <t>第一次登言己</t>
+  </si>
+  <si>
+    <t>(向土地國有財產局承租）</t>
+  </si>
+  <si>
+    <t>(超過五年屋頂突出物）</t>
+  </si>
+  <si>
+    <t>(超過五年)</t>
+  </si>
+  <si>
+    <t>(超過五年陽台等5項）</t>
+  </si>
+  <si>
+    <t>(超過五年未保存）</t>
+  </si>
+  <si>
+    <t>1308934(陽台雨遮）</t>
+  </si>
+  <si>
+    <t>213234(公共設施）</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>中華</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>豐田</t>
+  </si>
+  <si>
+    <t>國瑞.</t>
+  </si>
+  <si>
+    <t>賓士</t>
+  </si>
+  <si>
+    <t>93年08月10日</t>
+  </si>
+  <si>
+    <t>90年09月19日</t>
+  </si>
+  <si>
+    <t>102年03月14曰</t>
+  </si>
+  <si>
+    <t>95年02月20日</t>
+  </si>
+  <si>
+    <t>96年05月25日</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>臺灣銀行彰化分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行彰營分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行彰化分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行中彰分行</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社營業部</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社旭光分社</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社營業部</t>
+  </si>
+  <si>
+    <t>元大商業銀行彰化分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司彰化光復路郵局</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南彰化分行</t>
+  </si>
+  <si>
+    <t>彰化市農會大竹里彰南分社</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行彰泰分行</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>中華郵政存簿儲金</t>
+  </si>
+  <si>
+    <t>綜合存政</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>新臺幣.</t>
+  </si>
+  <si>
+    <t>美金</t>
+  </si>
+  <si>
+    <t>澳幣</t>
+  </si>
+  <si>
+    <t>林滄敏.</t>
+  </si>
+  <si>
+    <t>deposit</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>彰化第五信用合作社</t>
+  </si>
+  <si>
+    <t>彰化第一信用合作社</t>
+  </si>
+  <si>
+    <t>彰化高爾夫股份有限公司</t>
+  </si>
+  <si>
+    <t>彰化第十信用合作社</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>雙元雙利獲利鎖利保本連動債</t>
+  </si>
+  <si>
+    <t>DB06EQ0505</t>
+  </si>
+  <si>
+    <t>元大商業銀行</t>
+  </si>
+  <si>
+    <t>bonds</t>
+  </si>
+  <si>
+    <t>景順中國基金</t>
+  </si>
+  <si>
+    <t>富蘭克林坦伯頓亞洲成</t>
+  </si>
+  <si>
+    <t>富蘭坦伯頓大中華基金</t>
+  </si>
+  <si>
+    <t>摩根富林天然資源美元</t>
+  </si>
+  <si>
+    <t>富達亞洲高收益月美</t>
+  </si>
+  <si>
+    <t>景順新興市場債月配息</t>
+  </si>
+  <si>
+    <t>富坦邊境市場再投美</t>
+  </si>
+  <si>
+    <t>富蘭克坦伯頓生技領航</t>
+  </si>
+  <si>
+    <t>霸菱國際債券</t>
+  </si>
+  <si>
+    <t>翰亞印尼基金</t>
+  </si>
+  <si>
+    <t>INGL食品飲料美元</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>黃金</t>
+  </si>
+  <si>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>國華人壽</t>
+  </si>
+  <si>
+    <t>中華郵政</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>新光人壽</t>
+  </si>
+  <si>
+    <t>元大商業銀行安聯义壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>定期終生壽險</t>
+  </si>
+  <si>
+    <t>郵政簡易人壽六年期吉利保險</t>
+  </si>
+  <si>
+    <t>郵政簡易人壽步步高升保險</t>
+  </si>
+  <si>
+    <t>國泰全福101终身壽險</t>
+  </si>
+  <si>
+    <t>國泰人壽101終身壽險</t>
+  </si>
+  <si>
+    <t>新光人壽得意理財變額壽險</t>
+  </si>
+  <si>
+    <t>國泰312還本終身保險</t>
+  </si>
+  <si>
+    <t>富利年年终身保險</t>
+  </si>
+  <si>
+    <t>國泰添鑫終身壽險</t>
+  </si>
+  <si>
+    <t>佳迪福電力無限</t>
+  </si>
+  <si>
+    <t>精選普爾</t>
+  </si>
+  <si>
+    <t>國泰人壽添美多美元終身壽險</t>
+  </si>
+  <si>
+    <t>富邦人壽美利富外幣增額終身壽險</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>抵押貸款</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行彰營分行彰化縣彰化市曉陽路43號</t>
+  </si>
+  <si>
+    <t>99年07月30日</t>
+  </si>
+  <si>
+    <t>94年05月25日</t>
+  </si>
+  <si>
     <t>貝買</t>
-  </si>
-  <si>
-    <t>ccnfe貝買</t>
-  </si>
-  <si>
-    <t>0X37=*=~貝買</t>
-  </si>
-  <si>
-    <t>.買賣</t>
-  </si>
-  <si>
-    <t>n=a=貝買</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超過五年).</t>
-  </si>
-  <si>
-    <t>.(超過五年）</t>
-  </si>
-  <si>
-    <t>1：003458</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-16</t>
-  </si>
-  <si>
-    <t>tmp9c321</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市田中央段00041000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00931000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延和段01345000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段02295000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00763000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市延平段00486000.建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段09622000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段09623000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段06598000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市南郭段南郭小段06597000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市箣桐段01058000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市中山路</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段01788000建號</t>
-  </si>
-  <si>
-    <t>彰化縣彰化市光南里16鄰中興路</t>
-  </si>
-  <si>
-    <t>臺中市南屯區惠信段01885000建號</t>
-  </si>
-  <si>
-    <t>100000分之338</t>
-  </si>
-  <si>
-    <t>83年09月22日</t>
-  </si>
-  <si>
-    <t>88年10月29日.</t>
-  </si>
-  <si>
-    <t>繼承『</t>
-  </si>
-  <si>
-    <t>□311=貝買</t>
-  </si>
-  <si>
-    <t>第一次登言己</t>
-  </si>
-  <si>
-    <t>□33"=貝買</t>
-  </si>
-  <si>
-    <t>(向土地國有財產局承租）</t>
-  </si>
-  <si>
-    <t>(超過五年屋頂突出物）</t>
-  </si>
-  <si>
-    <t>(超過五年)</t>
-  </si>
-  <si>
-    <t>(超過五年陽台等5項）</t>
-  </si>
-  <si>
-    <t>(超過五年未保存）</t>
-  </si>
-  <si>
-    <t>1308934(陽台雨遮）</t>
-  </si>
-  <si>
-    <t>213234(公共設施）</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>中華</t>
-  </si>
-  <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>豐田</t>
-  </si>
-  <si>
-    <t>國瑞.</t>
-  </si>
-  <si>
-    <t>賓士</t>
-  </si>
-  <si>
-    <t>93年08月10日</t>
-  </si>
-  <si>
-    <t>90年09月19日</t>
-  </si>
-  <si>
-    <t>102年03月14曰</t>
-  </si>
-  <si>
-    <t>95年02月20日</t>
-  </si>
-  <si>
-    <t>96年05月25日</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>deposit_type</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>臺灣銀行彰化分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行彰營分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行彰化分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行中彰分行</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社營業部</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社旭光分社</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社營業部</t>
-  </si>
-  <si>
-    <t>元大商業銀行彰化分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司彰化光復路郵局</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南彰化分行</t>
-  </si>
-  <si>
-    <t>彰化市農會大竹里彰南分社</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行彰泰分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
-    <t>中華郵政存簿儲金</t>
-  </si>
-  <si>
-    <t>綜合存政</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>新臺幣.</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>澳幣</t>
-  </si>
-  <si>
-    <t>林滄敏.</t>
-  </si>
-  <si>
-    <t>deposit</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>彰化第五信用合作社</t>
-  </si>
-  <si>
-    <t>彰化第一信用合作社</t>
-  </si>
-  <si>
-    <t>彰化高爾夫股份有限公司</t>
-  </si>
-  <si>
-    <t>彰化第十信用合作社</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>dealer</t>
-  </si>
-  <si>
-    <t>雙元雙利獲利鎖利保本連動債</t>
-  </si>
-  <si>
-    <t>DB06EQ0505</t>
-  </si>
-  <si>
-    <t>元大商業銀行</t>
-  </si>
-  <si>
-    <t>bonds</t>
-  </si>
-  <si>
-    <t>景順中國基金</t>
-  </si>
-  <si>
-    <t>富蘭克林坦伯頓亞洲成</t>
-  </si>
-  <si>
-    <t>富蘭坦伯頓大中華基金</t>
-  </si>
-  <si>
-    <t>摩根富林天然資源美元</t>
-  </si>
-  <si>
-    <t>富達亞洲高收益月美</t>
-  </si>
-  <si>
-    <t>景順新興市場債月配息</t>
-  </si>
-  <si>
-    <t>富坦邊境市場再投美</t>
-  </si>
-  <si>
-    <t>富蘭克坦伯頓生技領航</t>
-  </si>
-  <si>
-    <t>霸菱國際債券</t>
-  </si>
-  <si>
-    <t>翰亞印尼基金</t>
-  </si>
-  <si>
-    <t>INGL食品飲料美元</t>
-  </si>
-  <si>
-    <t>fund</t>
-  </si>
-  <si>
-    <t>黃金</t>
-  </si>
-  <si>
-    <t>antique</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>國華人壽</t>
-  </si>
-  <si>
-    <t>中華郵政</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>新光人壽</t>
-  </si>
-  <si>
-    <t>元大商業銀行安聯义壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>定期終生壽險</t>
-  </si>
-  <si>
-    <t>郵政簡易人壽六年期吉利保險</t>
-  </si>
-  <si>
-    <t>郵政簡易人壽步步高升保險</t>
-  </si>
-  <si>
-    <t>國泰全福101终身壽險</t>
-  </si>
-  <si>
-    <t>國泰人壽101終身壽險</t>
-  </si>
-  <si>
-    <t>新光人壽得意理財變額壽險</t>
-  </si>
-  <si>
-    <t>國泰312還本終身保險</t>
-  </si>
-  <si>
-    <t>富利年年终身保險</t>
-  </si>
-  <si>
-    <t>國泰添鑫終身壽險</t>
-  </si>
-  <si>
-    <t>佳迪福電力無限</t>
-  </si>
-  <si>
-    <t>精選普爾</t>
-  </si>
-  <si>
-    <t>國泰人壽添美多美元終身壽險</t>
-  </si>
-  <si>
-    <t>富邦人壽美利富外幣增額終身壽險</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>debtor</t>
-  </si>
-  <si>
-    <t>抵押貸款</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行彰營分行彰化縣彰化市曉陽路43號</t>
-  </si>
-  <si>
-    <t>99年07月30日</t>
-  </si>
-  <si>
-    <t>94年05月25日</t>
   </si>
   <si>
     <t>debt</t>
@@ -1072,16 +1054,16 @@
         <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
@@ -1090,7 +1072,7 @@
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2">
         <v>13</v>
@@ -1125,16 +1107,16 @@
         <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -1143,7 +1125,7 @@
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2">
         <v>14</v>
@@ -1178,16 +1160,16 @@
         <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>42</v>
@@ -1196,7 +1178,7 @@
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2">
         <v>15</v>
@@ -1231,16 +1213,16 @@
         <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
@@ -1249,7 +1231,7 @@
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2">
         <v>16</v>
@@ -1281,19 +1263,19 @@
         <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>42</v>
@@ -1302,7 +1284,7 @@
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2">
         <v>17</v>
@@ -1337,16 +1319,16 @@
         <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>42</v>
@@ -1355,7 +1337,7 @@
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2">
         <v>18</v>
@@ -1390,16 +1372,16 @@
         <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>42</v>
@@ -1408,7 +1390,7 @@
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2">
         <v>19</v>
@@ -1443,16 +1425,16 @@
         <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>42</v>
@@ -1461,7 +1443,7 @@
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2">
         <v>20</v>
@@ -1496,16 +1478,16 @@
         <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>42</v>
@@ -1514,7 +1496,7 @@
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2">
         <v>21</v>
@@ -1549,16 +1531,16 @@
         <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
@@ -1567,7 +1549,7 @@
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2">
         <v>22</v>
@@ -1602,16 +1584,16 @@
         <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>42</v>
@@ -1620,7 +1602,7 @@
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2">
         <v>23</v>
@@ -1655,16 +1637,16 @@
         <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>42</v>
@@ -1673,7 +1655,7 @@
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2">
         <v>24</v>
@@ -1705,19 +1687,19 @@
         <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>42</v>
@@ -1726,7 +1708,7 @@
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2">
         <v>25</v>
@@ -1740,7 +1722,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
@@ -1761,16 +1743,16 @@
         <v>63</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>42</v>
@@ -1779,10 +1761,10 @@
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
@@ -1793,7 +1775,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
@@ -1811,19 +1793,19 @@
         <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>42</v>
@@ -1832,10 +1814,10 @@
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P16" s="2">
         <v>1</v>
@@ -1846,7 +1828,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
@@ -1867,16 +1849,16 @@
         <v>63</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>42</v>
@@ -1885,10 +1867,10 @@
         <v>1338</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O17" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
@@ -1899,7 +1881,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
@@ -1920,16 +1902,16 @@
         <v>63</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>42</v>
@@ -1938,10 +1920,10 @@
         <v>1338</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O18" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P18" s="2">
         <v>1</v>
@@ -1952,7 +1934,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
@@ -1970,19 +1952,19 @@
         <v>58</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="2">
         <v>15136450</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>42</v>
@@ -1991,10 +1973,10 @@
         <v>1338</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O19" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P19" s="2">
         <v>1</v>
@@ -2005,7 +1987,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
@@ -2029,13 +2011,13 @@
         <v>12770975</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>42</v>
@@ -2044,10 +2026,10 @@
         <v>1338</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O20" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2">
         <v>1</v>
@@ -2058,7 +2040,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
@@ -2076,19 +2058,19 @@
         <v>58</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H21" s="2">
         <v>12187554</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>42</v>
@@ -2097,10 +2079,10 @@
         <v>1338</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O21" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
@@ -2111,7 +2093,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
@@ -2129,19 +2111,19 @@
         <v>60</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="I22" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>42</v>
@@ -2150,10 +2132,10 @@
         <v>1338</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O22" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P22" s="2">
         <v>0.003</v>
@@ -2164,7 +2146,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
@@ -2182,19 +2164,19 @@
         <v>61</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H23" s="2">
         <v>3055800</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>42</v>
@@ -2203,10 +2185,10 @@
         <v>1338</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O23" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="P23" s="2">
         <v>1</v>
@@ -2230,10 +2212,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -2271,34 +2253,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E2" s="2">
         <v>6500000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>42</v>
@@ -2307,42 +2289,42 @@
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2">
         <v>37155546</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>42</v>
@@ -2351,10 +2333,10 @@
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2422,10 +2404,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>330.91</v>
@@ -2440,19 +2422,19 @@
         <v>44</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
@@ -2461,10 +2443,10 @@
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2">
         <v>0.25</v>
@@ -2475,10 +2457,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2">
         <v>131.1</v>
@@ -2496,16 +2478,16 @@
         <v>63</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -2514,10 +2496,10 @@
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
@@ -2528,10 +2510,10 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C4" s="2">
         <v>87.4</v>
@@ -2546,19 +2528,19 @@
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>42</v>
@@ -2567,10 +2549,10 @@
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2">
         <v>1</v>
@@ -2581,10 +2563,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C5" s="2">
         <v>1167.7</v>
@@ -2596,22 +2578,22 @@
         <v>43</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="I5" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
@@ -2620,10 +2602,10 @@
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P5" s="2">
         <v>1</v>
@@ -2634,10 +2616,10 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2">
         <v>165</v>
@@ -2655,16 +2637,16 @@
         <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>42</v>
@@ -2673,10 +2655,10 @@
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
@@ -2687,10 +2669,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C7" s="2">
         <v>111.2</v>
@@ -2708,16 +2690,16 @@
         <v>63</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>42</v>
@@ -2726,10 +2708,10 @@
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P7" s="2">
         <v>1</v>
@@ -2740,10 +2722,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C8" s="2">
         <v>291.3</v>
@@ -2758,19 +2740,19 @@
         <v>52</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>42</v>
@@ -2779,10 +2761,10 @@
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="P8" s="2">
         <v>1</v>
@@ -2793,10 +2775,10 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C9" s="2">
         <v>383.1</v>
@@ -2814,16 +2796,16 @@
         <v>63</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>42</v>
@@ -2832,10 +2814,10 @@
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P9" s="2">
         <v>1</v>
@@ -2846,10 +2828,10 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2">
         <v>228.6</v>
@@ -2867,16 +2849,16 @@
         <v>63</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>42</v>
@@ -2885,10 +2867,10 @@
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P10" s="2">
         <v>1</v>
@@ -2899,10 +2881,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2">
         <v>228.6</v>
@@ -2914,22 +2896,22 @@
         <v>43</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>63</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
@@ -2938,10 +2920,10 @@
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="P11" s="2">
         <v>1</v>
@@ -2952,10 +2934,10 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2">
         <v>164</v>
@@ -2973,16 +2955,16 @@
         <v>63</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>42</v>
@@ -2991,10 +2973,10 @@
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P12" s="2">
         <v>1</v>
@@ -3005,10 +2987,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C13" s="2">
         <v>728</v>
@@ -3026,16 +3008,16 @@
         <v>63</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>42</v>
@@ -3044,10 +3026,10 @@
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="2">
         <v>1</v>
@@ -3058,10 +3040,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2">
         <v>224.1</v>
@@ -3079,16 +3061,16 @@
         <v>63</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>42</v>
@@ -3097,10 +3079,10 @@
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P14" s="2">
         <v>1</v>
@@ -3111,10 +3093,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2">
         <v>132.8</v>
@@ -3129,19 +3111,19 @@
         <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>42</v>
@@ -3150,10 +3132,10 @@
         <v>1338</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O15" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P15" s="2">
         <v>1</v>
@@ -3164,16 +3146,16 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="2">
         <v>28275.55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>43</v>
@@ -3185,16 +3167,16 @@
         <v>63</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>42</v>
@@ -3203,10 +3185,10 @@
         <v>1338</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O16" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P16" s="2">
         <v>0.00338</v>
@@ -3233,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -3271,10 +3253,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2">
         <v>1997</v>
@@ -3283,7 +3265,7 @@
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>63</v>
@@ -3292,13 +3274,13 @@
         <v>809000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>42</v>
@@ -3307,18 +3289,18 @@
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2">
         <v>2164</v>
@@ -3327,22 +3309,22 @@
         <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>42</v>
@@ -3351,18 +3333,18 @@
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2">
         <v>3456</v>
@@ -3371,7 +3353,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>63</v>
@@ -3380,13 +3362,13 @@
         <v>1779000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>42</v>
@@ -3395,18 +3377,18 @@
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2">
         <v>1794</v>
@@ -3415,7 +3397,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>63</v>
@@ -3424,13 +3406,13 @@
         <v>572000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
@@ -3439,18 +3421,18 @@
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2">
         <v>3498</v>
@@ -3459,7 +3441,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
@@ -3468,13 +3450,13 @@
         <v>3212000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>42</v>
@@ -3483,10 +3465,10 @@
         <v>1338</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3504,13 +3486,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3542,16 +3524,16 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
@@ -3560,13 +3542,13 @@
         <v>89109</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>42</v>
@@ -3575,24 +3557,24 @@
         <v>1338</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M2" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>43</v>
@@ -3601,13 +3583,13 @@
         <v>145447</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>42</v>
@@ -3616,24 +3598,24 @@
         <v>1338</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M3" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>42</v>
@@ -3642,13 +3624,13 @@
         <v>300027</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>42</v>
@@ -3657,24 +3639,24 @@
         <v>1338</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M4" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
@@ -3683,13 +3665,13 @@
         <v>346905</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>42</v>
@@ -3698,24 +3680,24 @@
         <v>1338</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>43</v>
@@ -3724,13 +3706,13 @@
         <v>123232</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>42</v>
@@ -3739,24 +3721,24 @@
         <v>1338</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M6" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>43</v>
@@ -3765,13 +3747,13 @@
         <v>957738</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>42</v>
@@ -3780,39 +3762,39 @@
         <v>1338</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M7" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F8" s="2">
         <v>25353</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>42</v>
@@ -3821,24 +3803,24 @@
         <v>1338</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M8" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>42</v>
@@ -3847,13 +3829,13 @@
         <v>36485</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>42</v>
@@ -3862,24 +3844,24 @@
         <v>1338</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M9" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>42</v>
@@ -3888,13 +3870,13 @@
         <v>14266</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>42</v>
@@ -3903,24 +3885,24 @@
         <v>1338</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M10" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>43</v>
@@ -3929,13 +3911,13 @@
         <v>209828</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>42</v>
@@ -3944,24 +3926,24 @@
         <v>1338</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M11" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>43</v>
@@ -3970,13 +3952,13 @@
         <v>405861</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>42</v>
@@ -3985,24 +3967,24 @@
         <v>1338</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M12" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>42</v>
@@ -4011,13 +3993,13 @@
         <v>20625</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>42</v>
@@ -4026,24 +4008,24 @@
         <v>1338</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M13" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>43</v>
@@ -4052,13 +4034,13 @@
         <v>384017</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>42</v>
@@ -4067,24 +4049,24 @@
         <v>1338</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M14" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>43</v>
@@ -4093,13 +4075,13 @@
         <v>1113211.53</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>42</v>
@@ -4108,24 +4090,24 @@
         <v>1338</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M15" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>42</v>
@@ -4134,13 +4116,13 @@
         <v>100388</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>42</v>
@@ -4149,24 +4131,24 @@
         <v>1338</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M16" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -4175,13 +4157,13 @@
         <v>36535.26</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>42</v>
@@ -4190,24 +4172,24 @@
         <v>1338</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M17" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>43</v>
@@ -4216,13 +4198,13 @@
         <v>48427.03</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>42</v>
@@ -4231,24 +4213,24 @@
         <v>1338</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M18" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>43</v>
@@ -4257,13 +4239,13 @@
         <v>389737.65</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>42</v>
@@ -4272,24 +4254,24 @@
         <v>1338</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M19" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
@@ -4298,13 +4280,13 @@
         <v>389737.65</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>42</v>
@@ -4313,24 +4295,24 @@
         <v>1338</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M20" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -4339,13 +4321,13 @@
         <v>389737.65</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>42</v>
@@ -4354,24 +4336,24 @@
         <v>1338</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M21" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>43</v>
@@ -4380,13 +4362,13 @@
         <v>329778.1</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>42</v>
@@ -4395,10 +4377,10 @@
         <v>1338</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M22" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -4422,13 +4404,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -4457,10 +4439,10 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -4472,19 +4454,19 @@
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2">
         <v>70000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>42</v>
@@ -4493,18 +4475,18 @@
         <v>1338</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N2" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>42</v>
@@ -4516,19 +4498,19 @@
         <v>100</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G3" s="2">
         <v>2000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>42</v>
@@ -4537,21 +4519,21 @@
         <v>1338</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N3" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2">
         <v>30000</v>
@@ -4560,19 +4542,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>42</v>
@@ -4581,18 +4563,18 @@
         <v>1338</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N4" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
@@ -4604,19 +4586,19 @@
         <v>100</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>42</v>
@@ -4625,18 +4607,18 @@
         <v>1338</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N5" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -4648,19 +4630,19 @@
         <v>100</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G6" s="2">
         <v>10000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>42</v>
@@ -4669,10 +4651,10 @@
         <v>1338</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4693,22 +4675,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>15</v>
@@ -4737,19 +4719,19 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2">
         <v>5</v>
@@ -4758,19 +4740,19 @@
         <v>10000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2">
         <v>1485000</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>42</v>
@@ -4779,10 +4761,10 @@
         <v>1338</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P2" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4806,16 +4788,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -4844,16 +4826,16 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2">
         <v>40.37</v>
@@ -4862,19 +4844,19 @@
         <v>55.46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2">
         <v>66495.92</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
@@ -4883,24 +4865,24 @@
         <v>1338</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O2" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2">
         <v>63.268</v>
@@ -4909,19 +4891,19 @@
         <v>29.91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2">
         <v>56202.67</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -4930,24 +4912,24 @@
         <v>1338</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O3" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E4" s="2">
         <v>88.807</v>
@@ -4956,19 +4938,19 @@
         <v>23.3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2">
         <v>61455.33</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>42</v>
@@ -4977,24 +4959,24 @@
         <v>1338</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O4" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E5" s="2">
         <v>503.051</v>
@@ -5003,19 +4985,19 @@
         <v>10.65</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H5" s="2">
         <v>159117.54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
@@ -5024,24 +5006,24 @@
         <v>1338</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2">
         <v>416.41</v>
@@ -5050,19 +5032,19 @@
         <v>8.435</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H6" s="2">
         <v>104318.82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>42</v>
@@ -5071,24 +5053,24 @@
         <v>1338</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O6" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E7" s="2">
         <v>161.88</v>
@@ -5097,19 +5079,19 @@
         <v>19.96</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2">
         <v>95964.4</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>42</v>
@@ -5118,24 +5100,24 @@
         <v>1338</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O7" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E8" s="2">
         <v>218.51</v>
@@ -5144,19 +5126,19 @@
         <v>19.96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2">
         <v>129535.35</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>42</v>
@@ -5165,24 +5147,24 @@
         <v>1338</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O8" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2">
         <v>483.642</v>
@@ -5191,19 +5173,19 @@
         <v>17.76</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H9" s="2">
         <v>255107.61</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>42</v>
@@ -5212,24 +5194,24 @@
         <v>1338</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O9" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E10" s="2">
         <v>18.71</v>
@@ -5238,19 +5220,19 @@
         <v>22.04</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2">
         <v>12247.34</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>42</v>
@@ -5259,24 +5241,24 @@
         <v>1338</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O10" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E11" s="2">
         <v>120.512</v>
@@ -5285,19 +5267,19 @@
         <v>26.69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H11" s="2">
         <v>95529.01</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
@@ -5306,24 +5288,24 @@
         <v>1338</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O11" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E12" s="2">
         <v>85.001</v>
@@ -5332,19 +5314,19 @@
         <v>26.69</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2">
         <v>67379.69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>42</v>
@@ -5353,24 +5335,24 @@
         <v>1338</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O12" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E13" s="2">
         <v>110.037</v>
@@ -5379,19 +5361,19 @@
         <v>14.104</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H13" s="2">
         <v>46093.26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>42</v>
@@ -5400,24 +5382,24 @@
         <v>1338</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O13" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="E14" s="2">
         <v>4.256</v>
@@ -5426,19 +5408,19 @@
         <v>1580.51</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="H14" s="2">
         <v>199781.52</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>42</v>
@@ -5447,10 +5429,10 @@
         <v>1338</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="O14" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5471,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5503,10 +5485,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -5518,13 +5500,13 @@
         <v>420000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>42</v>
@@ -5533,10 +5515,10 @@
         <v>1338</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5554,7 +5536,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -5586,25 +5568,25 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>42</v>
@@ -5613,33 +5595,33 @@
         <v>1338</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K2" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>42</v>
@@ -5648,33 +5630,33 @@
         <v>1338</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K3" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>42</v>
@@ -5683,33 +5665,33 @@
         <v>1338</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K4" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>42</v>
@@ -5718,33 +5700,33 @@
         <v>1338</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K5" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>42</v>
@@ -5753,33 +5735,33 @@
         <v>1338</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K6" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>42</v>
@@ -5788,33 +5770,33 @@
         <v>1338</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>42</v>
@@ -5823,33 +5805,33 @@
         <v>1338</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>42</v>
@@ -5858,33 +5840,33 @@
         <v>1338</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>42</v>
@@ -5893,33 +5875,33 @@
         <v>1338</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>42</v>
@@ -5928,33 +5910,33 @@
         <v>1338</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K11" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>42</v>
@@ -5963,33 +5945,33 @@
         <v>1338</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>42</v>
@@ -5998,33 +5980,33 @@
         <v>1338</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="F14" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>42</v>
@@ -6033,33 +6015,33 @@
         <v>1338</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K14" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>42</v>
@@ -6068,33 +6050,33 @@
         <v>1338</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>42</v>
@@ -6103,33 +6085,33 @@
         <v>1338</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>42</v>
@@ -6138,33 +6120,33 @@
         <v>1338</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
@@ -6173,33 +6155,33 @@
         <v>1338</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>42</v>
@@ -6208,33 +6190,33 @@
         <v>1338</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K19" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
+        <v>173</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="C20" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>42</v>
@@ -6243,10 +6225,10 @@
         <v>1338</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K20" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
